--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_12-00.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_12-00.xlsx
@@ -86,22 +86,43 @@
     <t>10:0</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>-2:0</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>-1:0</t>
   </si>
   <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>كريم فيرند لافلي الصغير</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
     <t>27:0</t>
-  </si>
-  <si>
-    <t>2:0</t>
   </si>
   <si>
     <t>Saturday, 17 January, 2026 12:00 PM</t>
@@ -934,11 +955,11 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -946,7 +967,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -960,11 +981,11 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -972,7 +993,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -980,51 +1001,155 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="24.75" customHeight="1">
+      <c r="A16" s="6">
+        <v>13</v>
+      </c>
+      <c t="s" r="B16" s="7">
+        <v>31</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c t="s" r="H16" s="8">
+        <v>32</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9">
+        <v>40</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c t="s" r="N16" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="6">
+        <v>14</v>
+      </c>
+      <c t="s" r="B17" s="7">
+        <v>33</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c t="s" r="H17" s="8">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="K16" s="10">
-        <v>478</v>
-      </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="11">
-        <v>31</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c t="s" r="F17" s="12">
-        <v>32</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-      <c t="s" r="I17" s="14">
-        <v>33</v>
-      </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9">
+        <v>15</v>
+      </c>
+      <c r="M17" s="9"/>
+      <c t="s" r="N17" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="25.5" customHeight="1">
+      <c r="A18" s="6">
+        <v>15</v>
+      </c>
+      <c t="s" r="B18" s="7">
+        <v>34</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c t="s" r="H18" s="8">
+        <v>35</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9">
+        <v>20</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c t="s" r="N18" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="24.75" customHeight="1">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c t="s" r="B19" s="7">
+        <v>36</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c t="s" r="H19" s="8">
+        <v>37</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9">
+        <v>48</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c t="s" r="N19" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" ht="26.25" customHeight="1">
+      <c r="K20" s="10">
+        <v>550</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="11">
+        <v>38</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c t="s" r="F21" s="12">
+        <v>39</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+      <c t="s" r="I21" s="14">
+        <v>40</v>
+      </c>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="59">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1068,10 +1193,22 @@
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:N21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
